--- a/Server_Inventory_Linux.xlsx
+++ b/Server_Inventory_Linux.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Environment</t>
   </si>
@@ -105,15 +105,6 @@
   </si>
   <si>
     <t>FHIR</t>
-  </si>
-  <si>
-    <t>pos</t>
-  </si>
-  <si>
-    <t>cdh</t>
-  </si>
-  <si>
-    <t>java</t>
   </si>
 </sst>
 </file>
@@ -493,10 +484,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -564,7 +555,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="4">
-        <v>44555.875</v>
+        <v>44562.875</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -604,148 +595,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4">
-        <v>44555.875</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4">
-        <v>44555.875</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4">
-        <v>44555.875</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C6" s="4"/>
+      <c r="C3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Server_Inventory_Linux.xlsx
+++ b/Server_Inventory_Linux.xlsx
@@ -104,7 +104,7 @@
     <t>Test</t>
   </si>
   <si>
-    <t>FHIR</t>
+    <t>POS</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -555,7 +555,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="4">
-        <v>44562.875</v>
+        <v>44563.875</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
